--- a/deprecated/Roteiro_Login.xlsx
+++ b/deprecated/Roteiro_Login.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.moreira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.moreira\Documents\Pessoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
   <si>
     <t>Cenário</t>
   </si>
@@ -51,59 +51,10 @@
     <t>Funcionário realizando um agendamento</t>
   </si>
   <si>
-    <t>1. Observa a exibição de um calendário
-2. Abrir um formulário para informar os participantes
-3. Abre tela de confirmação de dados
-4. Persiste o agendamento no sistema</t>
-  </si>
-  <si>
     <t>Desistência de marcar um agendamento</t>
   </si>
   <si>
-    <t>1. Funcionário entra na aba de "Agendamentos"
-2. Clicar no dia 21 de stembro de 2022 e no horário das 18:30, que é o momento escolhido para o agendamento
-3. Clicar no botão "Novo agendamento"
-4. Preencher os dados do veterinário Luís, do tutor João, do animal cachorro e a consulta de rotina
-5. Há uma desistência no agendamento, então não clica no botão de salvar e sai da página</t>
-  </si>
-  <si>
-    <t>1. Funcionário entra na aba de "Agendamentos"
-2. Clicar no dia e no horário que deverá ser feito o agendamento
-3. Clicar no botão "Novo agendamento"
-4. Preencher os dados do veterinário, tutor, animal e o tipo de consulta
-5. Não clica no botão de salvar e sai da página</t>
-  </si>
-  <si>
     <t>Mudança de dia e horário de um agendamento</t>
-  </si>
-  <si>
-    <t>1. Funcionário entra na aba de "Agendamentos"
-2. Clicar no dia 16 de agosto de 2022 e no horário das 15:00, que é o dia e horário anteriormente marcado para a consulta
-3. Clicar no botão "Editar"
-4. Altera os dados do veterinário Luís, do tutor João, do animal cachorro e a consulta de rotina
-5. Clica no botão salvar</t>
-  </si>
-  <si>
-    <t>1. Funcionário entra na aba de "Agendamentos"
-2. Clicar no dia e no horário que o agendamento foi feito anteriormente
-3. Clicar no botão "Editar"
-4. Preencher os novos dados do veterinário, tutor, animal e o tipo de consulta
-5. Clica no botão de salvar</t>
-  </si>
-  <si>
-    <t>Cancelamento de um agendamento</t>
-  </si>
-  <si>
-    <t>1. Funcionário entra na aba de "Agendamentos"
-2. Clicar no dia 16 de agosto de 2022 e no horário das 15:00, que é o dia e horário anteriormente marcado para a consulta
-3. Clicar no botão "Editar"
-4. Clica no botão "Cancelar"</t>
-  </si>
-  <si>
-    <t>1. Funcionário entra na aba de "Agendamentos"
-2. Clicar no dia e no horário que o agendamento foi feito anteriormente
-3. Clicar no botão "Editar"
-4. Clica no botão de "Cancelar"</t>
   </si>
   <si>
     <t>Cadastro Tutor</t>
@@ -628,22 +579,81 @@
 9. Realiza uma atualização na senha daquele usuário</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Sistema carrega a página de agendamentos
+2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
+3. Calendário carrega informações conforme o usuário vai passando de mês em mês
+4. Ao clicar no dia, o sistema irá expandir aquele determinado dia
+5. Ao clicar no horário, o sistema irá abrir um pop-up com as informações necessárias para o agendamento, sendo esses o nome do veterinário, nome do tutor do animal, qual o animal e o tipo de exame, sendo esse último consulta ou cirurgia
+6. Sistema aguarda o preenchimento pelo usuário
+7. Sistema solicita a confirmação dos dados
+8. Sistema transfere as informações digitadas no banco de dados </t>
+  </si>
+  <si>
     <t>1. Funcionário entra na aba de "Agendamentos"
 2. Olha o calendário que abrirá na página 
-3. Seleciona o ano, mês, dia e horário
+3. Seleciona o ano, mês que a consulta está marcada
+4. Clica no dia em que a consulta está marcada
+5. Clica no horário no qual a consulta está marcada
+6. Clique no botão "Desmarcar"
+7. Clica no botão "Confirmar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema carrega a página de agendamentos
+2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
+3. Calendário carrega informações conforme o usuário vai passando de mês em mês
+4. Ao clicar no dia, o sistema irá expandir aquele determinado dia
+5. Ao clicar em um horário que já há uma consulta marcada, o sistema irá abrir um pop-up com as informações do agendamento
+6. Sistema solicita confirmação para desmarcar a consulta
+7. Sistema apaga as informações daquela determinada consulta no banco de dados </t>
+  </si>
+  <si>
+    <t>1. Sistema carrega a página de agendamentos
+2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
+3. Calendário carrega informações conforme o usuário vai passando de mês em mês
+4. Ao clicar no dia, o sistema irá expandir aquele determinado dia no qual o atendimento escontra-se marcado
+5. Ao clicar no horário, o sistema irá abrir um pop-up com as informações daquele agendamento
+6. Sistema irá disponibilizar a mudança de horário para aquele agendamento
+7. Aguarda o usuário escoolher o outro dia/horário
+8. Sistema solicita a confirmação dos dados do agendamento 
+9. Sistema transfere as informações digitadas no banco de dados</t>
+  </si>
+  <si>
+    <t>Tentar agendar uma nova consulta em um horário indisponível</t>
+  </si>
+  <si>
+    <t>1. Funcionário entra na aba de "Agendamentos"
+2. Olha o calendário que abrirá na página 
+3. Seleciona o ano e mês
+4. Clica no dia que quer fazer o agendamento
+5. Clica no horário que, embora esteja indisponível, quer realizar o agendamento</t>
+  </si>
+  <si>
+    <t>1. Funcionário entra na aba de "Agendamentos"
+2. Olha o calendário que abrirá na página 
+3. Seleciona o ano, mês que está marcado o agendamento a ser modificado
+4. Clica no dia que está marcado o agendamento a ser modificado
+5. Clica no horário que está marcado o agendamento a ser modificado
+6. Clica no botão "Editar dados"
+7. Atualiza com o dia e horário pretendido
+8. Clique no botão "Salvar"
+9. Clica no botão "Confirmar"</t>
+  </si>
+  <si>
+    <t>1. Funcionário entra na aba de "Agendamentos"
+2. Olha o calendário que abrirá na página 
+3. Seleciona o ano, mês 
 4. Clica no dia escolhido
 5. Clica no horário escolhido
 6. Preenche os dados solicitados
-7. Clica no botão "Salvar"</t>
+7. Clica no botão "Salvar"
+8. Clique no botão "Confirmar"</t>
   </si>
   <si>
     <t xml:space="preserve">1. Sistema carrega a página de agendamentos
 2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
-3. Aguarda o usuário escolher o momento da nova consulta
-4. Ao clicar no dia, o sistema irá expandir aquele determinado dia
-5. Ao clicar no horário, o sistema irá abrir um pop-up com as informações necessárias para o agendamento, sendo esses o nome do veterinário, nome do tutor do animal, qual o animal e o tipo de exame, sendo esse último consulta ou cirurgia
-6. Sistema aguarda o preenchimento pelo usuário
-7. Sistema transfere as informações digitadas no banco de dados </t>
+3. Calendário carrega informações conforme o usuário vai passando de mês em mês
+4. Ao clicar no dia, o sistema irá expandir aquele determinado dia no qual o atendimento escontra-se marcado
+5. Ao clicar no horário, o sistema verificará que aquele horário não é viável e não permitirá a continuidade do processo </t>
   </si>
 </sst>
 </file>
@@ -681,18 +691,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -766,8 +770,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,41 +988,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="156" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="4" max="4" width="59.140625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="66" customWidth="1"/>
     <col min="7" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1026,21 +1030,21 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1048,59 +1052,59 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1108,506 +1112,521 @@
       <c r="E9" s="1"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="2"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:5" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="6"/>
+      <c r="E45" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>

--- a/deprecated/Roteiro_Login.xlsx
+++ b/deprecated/Roteiro_Login.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.moreira\Documents\Pessoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.moreira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>Cenário</t>
   </si>
@@ -523,60 +523,7 @@
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo de confirmação de senha, indicado com preenchimento incompativel com o campo "Senha"</t>
   </si>
   <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Inserir email cadastrado
-3. Inserir codinome da clínica no qual há intenção de logar
-4. Colocar a senha de acesso
-5. Pressionar o botão "Login"</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campo para preenchimento do e-mail do usuário é mostrado 
-3. Campo para preenchimento do codinome da clínica no qual se deseja logar é mostrado
-4. Campo para preenchimento da senha do usuário é mostrado
-5. Requisição ao banco de dados com a validação das informações preenchidas e, se tudo estiver correto, o usuário terá conseguido realizar com sucesso seu login e acessará o sistema</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campo para preenchimento do e-mail do usuário é mostrado 
-3. Campo para preenchimento do codinome da clínica no qual se deseja logar é mostrado
-4. Campo para preenchimento da senha do usuário é mostrado
-5. Requisição ao banco de dados com a validação das informações preenchidas e, visto a inexistência do usuário no banco de dados, aparecerá uma mensagem logo acima dos campos de preenchimento com a mensagem "Este e-mail não tem uma conta"</t>
-  </si>
-  <si>
-    <t>Usuário tentando logar com codinome ou senha inválida</t>
-  </si>
-  <si>
     <t>Usuário cadastrado realizando reset de senha</t>
-  </si>
-  <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Clicar no botão que fica logo abaixo do campo de senha "Redefinir minha senha"
-3. Esperar a página de redefinir a senha ser carregada
-4. Preencher o e-mail cadastrado no campo de e-mail que aparecerá
-5. Clicar no botão "Próximo"
-6. Entrar no e-mail dele e clicar no botão de "Mudar a senha" no e-mail que foi enviado a ele
-7. Esperar a tela de mudança de senha ser exibida
-8. Inserir a senha de interesse
-9. Clicar em salvar</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campo para preenchimento do e-mail do usuário é mostrado 
-3. Campo para preenchimento do codinome da clínica no qual se deseja logar é mostrado
-4. Campo para preenchimento da senha do usuário é mostrado
-5. Requisição ao banco de dados com a validação das informações preenchidas e, visto que o codinome ou a senha está errada, então o usuário receberá uma mensagem logo em cima do campo de e-mail dizendo "O codinome ou a senha está errada" e o login não será feito</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha
-3. Página inicial de redefinição de senha carregada
-4. O sistema aqui esperará o cliente preencher o e-mail
-5. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, caso haja, enviará um e-mail a este usuário para dar continuidade ao processo de redefinição de senha
-6. Quando o cliente clicar em "Mudar a senha", será feito uma requisição para abrir uma página de redefinição de senha
-7. Sistema carrega a página
-8. Aguarda o usuário colocar uma senha 
-9. Realiza uma atualização na senha daquele usuário</t>
   </si>
   <si>
     <t xml:space="preserve">1. Sistema carrega a página de agendamentos
@@ -654,6 +601,68 @@
 3. Calendário carrega informações conforme o usuário vai passando de mês em mês
 4. Ao clicar no dia, o sistema irá expandir aquele determinado dia no qual o atendimento escontra-se marcado
 5. Ao clicar no horário, o sistema verificará que aquele horário não é viável e não permitirá a continuidade do processo </t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Inserir email cadastrado, código da clínica no qual se deseja logar e a senha
+3. Pressionar o botão "Login"</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login
+2. Campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+3. Requisição ao banco de dados com a validação das informações preenchidas e login realizado com sucesso</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Inserir email não cadastrado, código da clínica no qual se deseja logar e a senha
+3. Pressionar o botão "Login"</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login
+2. Campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+3. Requisição ao banco de dados com a validação das informações preenchidas e, visto a inexistência do usuário no banco de dados, aparecerá uma mensagem logo acima dos campos de preenchimento com a mensagem "Este e-mail não tem uma conta"</t>
+  </si>
+  <si>
+    <t>Usuário tentando logar com código da clínica e/ou senha inválida</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login
+2. Campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+3. Requisição ao banco de dados com a validação das informações preenchidas e, visto que o código da clínica e/ou a senha estão errados, então o usuário receberá uma mensagem logo em cima do campo de e-mail dizendo "O código da clínica e/ou a senha estão errados" e o login não será feito</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
+3. Preencher o e-mail cadastrado no campo de e-mail que aparecerá
+4. Clicar no botão "Próximo"
+5. Entrar no e-mail e clicar no botão de "Mudar a senha" no e-mail que foi este recebeu da CertVet
+6. Inserir a senha de interesse
+7. Clicar em salvar</t>
+  </si>
+  <si>
+    <t>1. Carregar a tela de login
+2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha
+3. Campo de "e-mail" será exibido
+4. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, caso haja, enviará um e-mail a este usuário para dar continuidade ao processo de redefinição de senha
+5. Quando o cliente clicar em "Mudar a senha", será feito uma requisição para abrir uma página de redefinição de senha
+6. Campo de "Nova senha" será exibido
+7. Requisição ao banco de dados onde será feira uma atualização na senha do cadastro desse usuário</t>
+  </si>
+  <si>
+    <t>Usuário não cadastrado realizando reset de senha</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
+3. Preencher o e-mail não cadastrado no campo de e-mail que aparecerá
+4. Clicar no botão "Próximo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Carregar a tela de login
+2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha
+3. Campo de "e-mail" será exibido
+4. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, como não há, será exibido na tela a mensagem "Esse e-mail não pertence a nenhuma conta vinculada a CertVet"
+</t>
   </si>
 </sst>
 </file>
@@ -988,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,10 +1039,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1052,10 +1061,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1071,13 +1080,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1093,116 +1102,116 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
       <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="2"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1210,136 +1219,130 @@
       <c r="E17" s="2"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6"/>
     </row>
@@ -1348,13 +1351,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1363,43 +1366,43 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E30" s="6"/>
     </row>
@@ -1408,13 +1411,13 @@
         <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -1423,13 +1426,13 @@
         <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -1438,13 +1441,13 @@
         <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E33" s="6"/>
     </row>
@@ -1453,43 +1456,43 @@
         <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E36" s="6"/>
     </row>
@@ -1498,13 +1501,13 @@
         <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E37" s="6"/>
     </row>
@@ -1513,13 +1516,13 @@
         <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E38" s="6"/>
     </row>
@@ -1528,43 +1531,43 @@
         <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E41" s="6"/>
     </row>
@@ -1573,13 +1576,13 @@
         <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E42" s="6"/>
     </row>
@@ -1588,13 +1591,13 @@
         <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E43" s="6"/>
     </row>
@@ -1603,13 +1606,13 @@
         <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E44" s="6"/>
     </row>
@@ -1618,15 +1621,45 @@
         <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E47" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>

--- a/deprecated/Roteiro_Login.xlsx
+++ b/deprecated/Roteiro_Login.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
   <si>
     <t>Cenário</t>
   </si>
@@ -142,29 +144,6 @@
     <t>Estoque</t>
   </si>
   <si>
-    <t>Verificar quantidade disponível de um medicamento no estoque</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Estoque"
-2. Escrever no campo de busca o medicamento "Bayer Austria GmbH Herbststraße 6-10 1160 Wien AUSTRIA"
-3. Clicar no botão "Pesquisar"
-4. Encontre, dentre os resultados, aquele desejado
-5. Clique no registro desejado
-6. Abrirá um campo com maiores informações sobre o medicamento
-7. Clique no botão "Verificar estoque"
-8. Informações sobre a quantidade disponível e o histórico de entradas e saídas do medicamento aparecerá</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Estoque"
-2. Escrever no campo de busca o nome comercial ou o nome genérico do medicamento no qual se deseja saber a quantidade desponível
-3. Clicar no botão "Pesquisar"
-4. Encontre, dentre os resultados, aquele desejado
-5. Clique no registro desejado
-6. Abrirá um campo com maiores informações sobre o medicamento escolhido
-7. Clique no botão "Verificar estoque"
-8. Informações sobre a quantidade disponível e o histórico de entradas e saídas do medicamento aparecerá</t>
-  </si>
-  <si>
     <t>Cadastro de usuário</t>
   </si>
   <si>
@@ -524,16 +503,6 @@
   </si>
   <si>
     <t>Usuário cadastrado realizando reset de senha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Sistema carrega a página de agendamentos
-2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
-3. Calendário carrega informações conforme o usuário vai passando de mês em mês
-4. Ao clicar no dia, o sistema irá expandir aquele determinado dia
-5. Ao clicar no horário, o sistema irá abrir um pop-up com as informações necessárias para o agendamento, sendo esses o nome do veterinário, nome do tutor do animal, qual o animal e o tipo de exame, sendo esse último consulta ou cirurgia
-6. Sistema aguarda o preenchimento pelo usuário
-7. Sistema solicita a confirmação dos dados
-8. Sistema transfere as informações digitadas no banco de dados </t>
   </si>
   <si>
     <t>1. Funcionário entra na aba de "Agendamentos"
@@ -586,8 +555,75 @@
 9. Clica no botão "Confirmar"</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Sistema carrega a página de agendamentos
+2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
+3. Calendário carrega informações conforme o usuário vai passando de mês em mês
+4. Ao clicar no dia, o sistema irá expandir aquele determinado dia no qual o atendimento escontra-se marcado
+5. Ao clicar no horário, o sistema verificará que aquele horário não é viável e não permitirá a continuidade do processo </t>
+  </si>
+  <si>
+    <t>Usuário tentando logar com código da clínica e/ou senha inválida</t>
+  </si>
+  <si>
+    <t>Usuário não cadastrado realizando reset de senha</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+2. Requisição ao banco de dados com a validação das informações preenchidas e login realizado com sucesso</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Inserir email cadastrado, código da clínica no qual se deseja logar e a senha e pressionar o botão "Login"</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+2. Requisição ao banco de dados com a validação das informações preenchidas e, visto a inexistência do usuário no banco de dados, aparecerá uma mensagem logo acima dos campos de preenchimento com a mensagem "Este e-mail não tem uma conta"</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Inserir email não cadastrado, código da clínica no qual se deseja logar e a senha e pressionar o botão "Login"</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+2. Requisição ao banco de dados com a validação das informações preenchidas e, visto que o código da clínica e/ou a senha estão errados, então o usuário receberá uma mensagem logo em cima do campo de e-mail dizendo "O código da clínica e/ou a senha estão errados" e o login não será feito</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
+3. Preencher o e-mail cadastrado no campo de e-mail que aparecerá e clicar no botão "Próximo"
+4. Entrar no e-mail e clicar no botão de "Mudar a senha" no e-mail que foi este recebeu da CertVet
+5. Inserir a senha de interesse e clicar em salvar</t>
+  </si>
+  <si>
+    <t>1. Carregar a tela de login e um botão "Redefinir minha senha" será exibido
+2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha e um campo de "e-mail" será exibido
+3. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, caso haja, enviará um e-mail a este usuário para dar continuidade ao processo de redefinição de senha
+4. Quando o cliente clicar em "Mudar a senha", será feito uma requisição para abrir uma página de redefinição de senha e campo de "Nova senha" será exibido
+5. Requisição ao banco de dados onde será feira uma atualização na senha do cadastro desse usuário</t>
+  </si>
+  <si>
+    <t>1. Carregar a tela de login e um botão "Redefinir minha senha" será exibido
+2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha e um campo de "e-mail" será exibido
+3. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, não havendo, uma mensagem irá aparecer "E-mail não cadastrado"</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
+3. Preencher o e-mail no campo de e-mail que aparecerá e clicar no botão "Próximo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema carrega a página de agendamentos e exibe um calendário que informa todos os agendamentos já existentes
+2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
+3. Calendário carrega informações conforme o usuário vai passando de mês em mês
+4. Ao clicar no dia, o sistema irá expandir aquele determinado dia
+5. Ao clicar no horário, o sistema irá abrir um pop-up com as informações necessárias para o agendamento, sendo esses o nome do veterinário, nome do tutor do animal, qual o animal e o tipo de exame, sendo esse último consulta ou cirurgia
+6. Sistema aguarda o preenchimento pelo usuário
+7. Sistema solicita a confirmação dos dados
+8. Sistema transfere as informações digitadas no banco de dados </t>
+  </si>
+  <si>
     <t>1. Funcionário entra na aba de "Agendamentos"
-2. Olha o calendário que abrirá na página 
+2. Funcionário seleciona o ano, mês, dia e horário que deseja marcar 
 3. Seleciona o ano, mês 
 4. Clica no dia escolhido
 5. Clica no horário escolhido
@@ -596,72 +632,128 @@
 8. Clique no botão "Confirmar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Sistema carrega a página de agendamentos
-2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
-3. Calendário carrega informações conforme o usuário vai passando de mês em mês
-4. Ao clicar no dia, o sistema irá expandir aquele determinado dia no qual o atendimento escontra-se marcado
-5. Ao clicar no horário, o sistema verificará que aquele horário não é viável e não permitirá a continuidade do processo </t>
-  </si>
-  <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Inserir email cadastrado, código da clínica no qual se deseja logar e a senha
-3. Pressionar o botão "Login"</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campos para preenchimento de e-mail, código da clínica e senha são exibidos 
-3. Requisição ao banco de dados com a validação das informações preenchidas e login realizado com sucesso</t>
-  </si>
-  <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Inserir email não cadastrado, código da clínica no qual se deseja logar e a senha
-3. Pressionar o botão "Login"</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campos para preenchimento de e-mail, código da clínica e senha são exibidos 
-3. Requisição ao banco de dados com a validação das informações preenchidas e, visto a inexistência do usuário no banco de dados, aparecerá uma mensagem logo acima dos campos de preenchimento com a mensagem "Este e-mail não tem uma conta"</t>
-  </si>
-  <si>
-    <t>Usuário tentando logar com código da clínica e/ou senha inválida</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campos para preenchimento de e-mail, código da clínica e senha são exibidos 
-3. Requisição ao banco de dados com a validação das informações preenchidas e, visto que o código da clínica e/ou a senha estão errados, então o usuário receberá uma mensagem logo em cima do campo de e-mail dizendo "O código da clínica e/ou a senha estão errados" e o login não será feito</t>
-  </si>
-  <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
-3. Preencher o e-mail cadastrado no campo de e-mail que aparecerá
-4. Clicar no botão "Próximo"
-5. Entrar no e-mail e clicar no botão de "Mudar a senha" no e-mail que foi este recebeu da CertVet
-6. Inserir a senha de interesse
-7. Clicar em salvar</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha
-3. Campo de "e-mail" será exibido
-4. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, caso haja, enviará um e-mail a este usuário para dar continuidade ao processo de redefinição de senha
-5. Quando o cliente clicar em "Mudar a senha", será feito uma requisição para abrir uma página de redefinição de senha
-6. Campo de "Nova senha" será exibido
-7. Requisição ao banco de dados onde será feira uma atualização na senha do cadastro desse usuário</t>
-  </si>
-  <si>
-    <t>Usuário não cadastrado realizando reset de senha</t>
-  </si>
-  <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
-3. Preencher o e-mail não cadastrado no campo de e-mail que aparecerá
-4. Clicar no botão "Próximo"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Carregar a tela de login
-2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha
-3. Campo de "e-mail" será exibido
-4. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, como não há, será exibido na tela a mensagem "Esse e-mail não pertence a nenhuma conta vinculada a CertVet"
+    <t>Cadastrar novo produto</t>
+  </si>
+  <si>
+    <t>Ver quantidade disponivel</t>
+  </si>
+  <si>
+    <t>Adicionar itens do produto</t>
+  </si>
+  <si>
+    <t>Retirar itens do produto</t>
+  </si>
+  <si>
+    <t>Pesquisar produto</t>
+  </si>
+  <si>
+    <t>Cadastrar novo medicamento</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá abrir uma tela requerendo informações sobre o novo medicamento
+3. Sistema verifica se todas as informações necessárias foram preenchidas e solicita confirmação para cadastro
+4. Sistema faz uma requisição para adiocionar o medicamento no banco de dados</t>
+  </si>
+  <si>
+    <t>1. Entrar na aba "Estoque"
+2. Clica no botão "Adicionar um medicamento"
+3. Funcionário preenche as informações do novo medicamento como estado-membro/EEE, requerente/titular da autorização de introdução no mercado, nome fantasia do medicamento, substância ativa, dosagem, forma farmacêutica, espécie-alvo, via de administração e clica em "Adicionar"
+4. Funcionário clica em "Confirmar"</t>
+  </si>
+  <si>
+    <t>Deletar medicamento</t>
+  </si>
+  <si>
+    <t>1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Excluir"
+5. Usuário confirma a exclusão</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+4. Sistema recebe a solicitação de exclusão e exibe uma mensagem de confirmação da exclusão
+5. Sistema faz uma requisição no banco de dados excluindo aquele registro</t>
+  </si>
+  <si>
+    <t>Pesquisar medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+</t>
+  </si>
+  <si>
+    <t>Verificar quantidade disponível do medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Verificar estoque"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+</t>
+  </si>
+  <si>
+    <t>Adicionar quantidade ao medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Verificar estoque"
+5. Usuário clica no botão "Adicionar quantidade"
+6. Preenche os dados requeridos pelo sistema e clica em "Próximo"
+7. Usuário clica no botão "Confirmar"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+5. Sistema abre formulário para preenchimento com informações sobre a quantidade que chegou do produto
+6. Sistema confere se todas as informações foram preenchidas da forma correta e solicita confirmação do usuário
+7. Sistema faz uma requisição ao banco de dados adicionando a quantidade anterior com a que está entrando na clínica
+</t>
+  </si>
+  <si>
+    <t>Tirar quantidade ao medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Verificar estoque"
+5. Usuário clica no botão "Tirar quantidade"
+6. Preenche os dados requeridos pelo sistema e clica em "Próximo"
+7. Usuário clica no botão "Confirmar"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+5. Sistema abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
+6. Sistema confere se todas as informações foram preenchidas da forma correta e se a quantidade que está saindo é menor do que aquela que existe na clínica e solicita confirmação do usuário
+7. Sistema faz uma requisição ao banco de dados reduzindo a quantidade anterior com a que está saindo na clínica
 </t>
   </si>
 </sst>
@@ -700,12 +792,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -759,7 +857,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -767,9 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -781,6 +876,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1015,19 +1117,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1039,10 +1141,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1061,10 +1163,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1080,13 +1182,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1102,40 +1204,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -1143,32 +1242,32 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>102</v>
+      <c r="C12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,22 +1277,22 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>104</v>
+      <c r="C14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1203,13 +1302,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -1217,23 +1316,23 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -1241,7 +1340,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1257,7 +1356,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="7"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1272,7 +1371,8 @@
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1287,6 +1387,7 @@
       <c r="D22" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1301,24 +1402,26 @@
       <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>31</v>
@@ -1333,7 +1436,7 @@
     </row>
     <row r="26" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>34</v>
@@ -1344,11 +1447,11 @@
       <c r="D26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>37</v>
@@ -1359,11 +1462,11 @@
       <c r="D27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>40</v>
@@ -1374,11 +1477,11 @@
       <c r="D28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
@@ -1389,56 +1492,56 @@
       <c r="D29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>55</v>
@@ -1449,11 +1552,11 @@
       <c r="D33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>58</v>
@@ -1464,11 +1567,11 @@
       <c r="D34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>61</v>
@@ -1479,56 +1582,56 @@
       <c r="D35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>73</v>
@@ -1539,11 +1642,11 @@
       <c r="D39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>76</v>
@@ -1554,26 +1657,26 @@
       <c r="D40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>83</v>
@@ -1584,11 +1687,11 @@
       <c r="D42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>86</v>
@@ -1599,11 +1702,11 @@
       <c r="D43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>89</v>
@@ -1614,11 +1717,11 @@
       <c r="D44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="6"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>92</v>
@@ -1629,11 +1732,11 @@
       <c r="D45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>95</v>
@@ -1644,25 +1747,250 @@
       <c r="D46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="6"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="55.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/deprecated/Roteiro_Login.xlsx
+++ b/deprecated/Roteiro_Login.xlsx
@@ -5,21 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.moreira\Documents\Pessoal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.moreira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
   <si>
     <t>Cenário</t>
   </si>
@@ -142,29 +144,6 @@
     <t>Estoque</t>
   </si>
   <si>
-    <t>Verificar quantidade disponível de um medicamento no estoque</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Estoque"
-2. Escrever no campo de busca o medicamento "Bayer Austria GmbH Herbststraße 6-10 1160 Wien AUSTRIA"
-3. Clicar no botão "Pesquisar"
-4. Encontre, dentre os resultados, aquele desejado
-5. Clique no registro desejado
-6. Abrirá um campo com maiores informações sobre o medicamento
-7. Clique no botão "Verificar estoque"
-8. Informações sobre a quantidade disponível e o histórico de entradas e saídas do medicamento aparecerá</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Estoque"
-2. Escrever no campo de busca o nome comercial ou o nome genérico do medicamento no qual se deseja saber a quantidade desponível
-3. Clicar no botão "Pesquisar"
-4. Encontre, dentre os resultados, aquele desejado
-5. Clique no registro desejado
-6. Abrirá um campo com maiores informações sobre o medicamento escolhido
-7. Clique no botão "Verificar estoque"
-8. Informações sobre a quantidade disponível e o histórico de entradas e saídas do medicamento aparecerá</t>
-  </si>
-  <si>
     <t>Cadastro de usuário</t>
   </si>
   <si>
@@ -523,70 +502,7 @@
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo de confirmação de senha, indicado com preenchimento incompativel com o campo "Senha"</t>
   </si>
   <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Inserir email cadastrado
-3. Inserir codinome da clínica no qual há intenção de logar
-4. Colocar a senha de acesso
-5. Pressionar o botão "Login"</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campo para preenchimento do e-mail do usuário é mostrado 
-3. Campo para preenchimento do codinome da clínica no qual se deseja logar é mostrado
-4. Campo para preenchimento da senha do usuário é mostrado
-5. Requisição ao banco de dados com a validação das informações preenchidas e, se tudo estiver correto, o usuário terá conseguido realizar com sucesso seu login e acessará o sistema</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campo para preenchimento do e-mail do usuário é mostrado 
-3. Campo para preenchimento do codinome da clínica no qual se deseja logar é mostrado
-4. Campo para preenchimento da senha do usuário é mostrado
-5. Requisição ao banco de dados com a validação das informações preenchidas e, visto a inexistência do usuário no banco de dados, aparecerá uma mensagem logo acima dos campos de preenchimento com a mensagem "Este e-mail não tem uma conta"</t>
-  </si>
-  <si>
-    <t>Usuário tentando logar com codinome ou senha inválida</t>
-  </si>
-  <si>
     <t>Usuário cadastrado realizando reset de senha</t>
-  </si>
-  <si>
-    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
-2. Clicar no botão que fica logo abaixo do campo de senha "Redefinir minha senha"
-3. Esperar a página de redefinir a senha ser carregada
-4. Preencher o e-mail cadastrado no campo de e-mail que aparecerá
-5. Clicar no botão "Próximo"
-6. Entrar no e-mail dele e clicar no botão de "Mudar a senha" no e-mail que foi enviado a ele
-7. Esperar a tela de mudança de senha ser exibida
-8. Inserir a senha de interesse
-9. Clicar em salvar</t>
-  </si>
-  <si>
-    <t>1. Exibir a tela de login
-2. Campo para preenchimento do e-mail do usuário é mostrado 
-3. Campo para preenchimento do codinome da clínica no qual se deseja logar é mostrado
-4. Campo para preenchimento da senha do usuário é mostrado
-5. Requisição ao banco de dados com a validação das informações preenchidas e, visto que o codinome ou a senha está errada, então o usuário receberá uma mensagem logo em cima do campo de e-mail dizendo "O codinome ou a senha está errada" e o login não será feito</t>
-  </si>
-  <si>
-    <t>1. Carregar a tela de login
-2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha
-3. Página inicial de redefinição de senha carregada
-4. O sistema aqui esperará o cliente preencher o e-mail
-5. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, caso haja, enviará um e-mail a este usuário para dar continuidade ao processo de redefinição de senha
-6. Quando o cliente clicar em "Mudar a senha", será feito uma requisição para abrir uma página de redefinição de senha
-7. Sistema carrega a página
-8. Aguarda o usuário colocar uma senha 
-9. Realiza uma atualização na senha daquele usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Sistema carrega a página de agendamentos
-2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
-3. Calendário carrega informações conforme o usuário vai passando de mês em mês
-4. Ao clicar no dia, o sistema irá expandir aquele determinado dia
-5. Ao clicar no horário, o sistema irá abrir um pop-up com as informações necessárias para o agendamento, sendo esses o nome do veterinário, nome do tutor do animal, qual o animal e o tipo de exame, sendo esse último consulta ou cirurgia
-6. Sistema aguarda o preenchimento pelo usuário
-7. Sistema solicita a confirmação dos dados
-8. Sistema transfere as informações digitadas no banco de dados </t>
   </si>
   <si>
     <t>1. Funcionário entra na aba de "Agendamentos"
@@ -639,8 +555,75 @@
 9. Clica no botão "Confirmar"</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Sistema carrega a página de agendamentos
+2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
+3. Calendário carrega informações conforme o usuário vai passando de mês em mês
+4. Ao clicar no dia, o sistema irá expandir aquele determinado dia no qual o atendimento escontra-se marcado
+5. Ao clicar no horário, o sistema verificará que aquele horário não é viável e não permitirá a continuidade do processo </t>
+  </si>
+  <si>
+    <t>Usuário tentando logar com código da clínica e/ou senha inválida</t>
+  </si>
+  <si>
+    <t>Usuário não cadastrado realizando reset de senha</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+2. Requisição ao banco de dados com a validação das informações preenchidas e login realizado com sucesso</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Inserir email cadastrado, código da clínica no qual se deseja logar e a senha e pressionar o botão "Login"</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+2. Requisição ao banco de dados com a validação das informações preenchidas e, visto a inexistência do usuário no banco de dados, aparecerá uma mensagem logo acima dos campos de preenchimento com a mensagem "Este e-mail não tem uma conta"</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Inserir email não cadastrado, código da clínica no qual se deseja logar e a senha e pressionar o botão "Login"</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+2. Requisição ao banco de dados com a validação das informações preenchidas e, visto que o código da clínica e/ou a senha estão errados, então o usuário receberá uma mensagem logo em cima do campo de e-mail dizendo "O código da clínica e/ou a senha estão errados" e o login não será feito</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
+3. Preencher o e-mail cadastrado no campo de e-mail que aparecerá e clicar no botão "Próximo"
+4. Entrar no e-mail e clicar no botão de "Mudar a senha" no e-mail que foi este recebeu da CertVet
+5. Inserir a senha de interesse e clicar em salvar</t>
+  </si>
+  <si>
+    <t>1. Carregar a tela de login e um botão "Redefinir minha senha" será exibido
+2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha e um campo de "e-mail" será exibido
+3. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, caso haja, enviará um e-mail a este usuário para dar continuidade ao processo de redefinição de senha
+4. Quando o cliente clicar em "Mudar a senha", será feito uma requisição para abrir uma página de redefinição de senha e campo de "Nova senha" será exibido
+5. Requisição ao banco de dados onde será feira uma atualização na senha do cadastro desse usuário</t>
+  </si>
+  <si>
+    <t>1. Carregar a tela de login e um botão "Redefinir minha senha" será exibido
+2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha e um campo de "e-mail" será exibido
+3. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, não havendo, uma mensagem irá aparecer "E-mail não cadastrado"</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
+2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
+3. Preencher o e-mail no campo de e-mail que aparecerá e clicar no botão "Próximo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema carrega a página de agendamentos e exibe um calendário que informa todos os agendamentos já existentes
+2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
+3. Calendário carrega informações conforme o usuário vai passando de mês em mês
+4. Ao clicar no dia, o sistema irá expandir aquele determinado dia
+5. Ao clicar no horário, o sistema irá abrir um pop-up com as informações necessárias para o agendamento, sendo esses o nome do veterinário, nome do tutor do animal, qual o animal e o tipo de exame, sendo esse último consulta ou cirurgia
+6. Sistema aguarda o preenchimento pelo usuário
+7. Sistema solicita a confirmação dos dados
+8. Sistema transfere as informações digitadas no banco de dados </t>
+  </si>
+  <si>
     <t>1. Funcionário entra na aba de "Agendamentos"
-2. Olha o calendário que abrirá na página 
+2. Funcionário seleciona o ano, mês, dia e horário que deseja marcar 
 3. Seleciona o ano, mês 
 4. Clica no dia escolhido
 5. Clica no horário escolhido
@@ -649,11 +632,221 @@
 8. Clique no botão "Confirmar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Sistema carrega a página de agendamentos
-2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
-3. Calendário carrega informações conforme o usuário vai passando de mês em mês
-4. Ao clicar no dia, o sistema irá expandir aquele determinado dia no qual o atendimento escontra-se marcado
-5. Ao clicar no horário, o sistema verificará que aquele horário não é viável e não permitirá a continuidade do processo </t>
+    <t>Cadastrar novo produto</t>
+  </si>
+  <si>
+    <t>Ver quantidade disponivel</t>
+  </si>
+  <si>
+    <t>Adicionar itens do produto</t>
+  </si>
+  <si>
+    <t>Retirar itens do produto</t>
+  </si>
+  <si>
+    <t>Pesquisar produto</t>
+  </si>
+  <si>
+    <t>Cadastrar novo medicamento</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá abrir uma tela requerendo informações sobre o novo medicamento
+3. Sistema verifica se todas as informações necessárias foram preenchidas e solicita confirmação para cadastro
+4. Sistema faz uma requisição para adiocionar o medicamento no banco de dados</t>
+  </si>
+  <si>
+    <t>1. Entrar na aba "Estoque"
+2. Clica no botão "Adicionar um medicamento"
+3. Funcionário preenche as informações do novo medicamento como estado-membro/EEE, requerente/titular da autorização de introdução no mercado, nome fantasia do medicamento, substância ativa, dosagem, forma farmacêutica, espécie-alvo, via de administração e clica em "Adicionar"
+4. Funcionário clica em "Confirmar"</t>
+  </si>
+  <si>
+    <t>Deletar medicamento</t>
+  </si>
+  <si>
+    <t>1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Excluir"
+5. Usuário confirma a exclusão</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+4. Sistema recebe a solicitação de exclusão e exibe uma mensagem de confirmação da exclusão
+5. Sistema faz uma requisição no banco de dados excluindo aquele registro</t>
+  </si>
+  <si>
+    <t>Pesquisar medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+</t>
+  </si>
+  <si>
+    <t>Verificar quantidade disponível do medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Verificar estoque"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+</t>
+  </si>
+  <si>
+    <t>Adicionar quantidade ao medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Verificar estoque"
+5. Usuário clica no botão "Adicionar quantidade"
+6. Preenche os dados requeridos pelo sistema e clica em "Próximo"
+7. Usuário clica no botão "Confirmar"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+5. Sistema abre formulário para preenchimento com informações sobre a quantidade que chegou do produto
+6. Sistema confere se todas as informações foram preenchidas da forma correta e solicita confirmação do usuário
+7. Sistema faz uma requisição ao banco de dados adicionando a quantidade anterior com a que está entrando na clínica
+</t>
+  </si>
+  <si>
+    <t>Tirar quantidade ao medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Verificar estoque"
+5. Usuário clica no botão "Tirar quantidade"
+6. Preenche os dados requeridos pelo sistema e clica em "Próximo"
+7. Usuário clica no botão "Confirmar"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema solicita as informações daquele determinado produto e exibe na tela
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+5. Sistema abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
+6. Sistema confere se todas as informações foram preenchidas da forma correta e se a quantidade que está saindo é menor do que aquela que existe na clínica e solicita confirmação do usuário
+7. Sistema faz uma requisição ao banco de dados reduzindo a quantidade anterior com a que está saindo na clínica
+</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá abrir uma tela requerendo informações sobre o novo medicamento
+3. Sistema verifica se todas as informações necessárias foram preenchidas e solicita confirmação para cadastro
+4. Sistema salva as informações</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema exibe na tela as informações daquele medicamento
+4. Sistema recebe a solicitação de exclusão e exibe uma mensagem de confirmação da exclusão
+5. Sistema exclui aquele registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema exibe na tela as informações daquele medicamento
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema exibe na tela as informações daquele medicamento
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema exibe na tela as informações daquele medicamento
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+5. Sistema abre formulário para preenchimento com informações sobre a quantidade que chegou do produto
+6. Sistema confere se todas as informações foram preenchidas da forma correta e solicita confirmação do usuário
+7. Sistema adiciona o valor a quantidade anterior existente</t>
+  </si>
+  <si>
+    <t>1. Selecionar aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4.  Clicar no botão "Visualizar"
+5. Usuário clica no botão "Verificar estoque"
+6. Usuário clica no botão "Tirar quantidade"
+7. Preenche os dados requeridos pelo sistema e clica em "Próximo"
+8. Usuário clica no botão "Confirmar"</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema exibe na tela as informações daquele medicamento
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+5. Sistema abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
+6. Sistema confere se todas as informações foram preenchidas da forma correta e se a quantidade que está saindo é menor ou igual a aquela que existe na clínica e solicita confirmação do usuário
+7. Sistema reduz a quantidade anterior com a que está saindo na clínica</t>
+  </si>
+  <si>
+    <t>Tirar maior quantidade do que a existente na clínica</t>
+  </si>
+  <si>
+    <t>1. Selecionar aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Verificar estoque"
+5. Usuário clica no botão "Tirar quantidade"
+6. Preenche os dados requeridos pelo sistema e clica em "Próximo"</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema exibe na tela as informações daquele medicamento
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+5. Sistema abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
+6. Sistema confere se todas as informações foram preenchidas da forma correta e se a quantidade que está saindo é menor do que a quantidade existente na clínica. Visto a quantidade de retirada ser superior a disponível, sistema não da continuidade no processo e exibe a mensagem "Quantidade inexistente para retirada".</t>
+  </si>
+  <si>
+    <t>Editar saída ou entrada de medicamento</t>
+  </si>
+  <si>
+    <t>1. Selecionar aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Verificar estoque"
+5. Usuário clica no botão "Editar histórico de saídas e entradas"
+6. Edita os dados requeridos pelo sistema e clica em "Próximo"</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
+3. Sistema exibe na tela as informações daquele medicamento
+4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+5. Sistema abre lista de todos os registros de entrada e saída do medicamento
+6. Sistema confere se todas as informações foram preenchidas da forma correta e se a quantidade que está saindo é menor do que a quantidade existente na clínica. Caso não seja, o sistema salva e atualiza a quantidade do produto disponível. Caso seja, sistema não da continuidade no processo e exibe a mensagem "Quantidade inexistente para retirada".</t>
   </si>
 </sst>
 </file>
@@ -691,15 +884,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -746,11 +945,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -758,9 +973,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -773,9 +985,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -990,9 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1006,19 +1239,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1030,606 +1263,817 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>111</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E36" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="6"/>
+      <c r="A38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="6"/>
+      <c r="A39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="6"/>
+      <c r="A40" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="6"/>
+      <c r="A41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="6"/>
+      <c r="A42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="6"/>
+      <c r="A43" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="6"/>
+      <c r="A44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="6"/>
+      <c r="A45" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="55.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/deprecated/Roteiro_Login.xlsx
+++ b/deprecated/Roteiro_Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="1845"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
   <si>
     <t>Cenário</t>
   </si>
@@ -757,80 +757,87 @@
 </t>
   </si>
   <si>
-    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Sistema irá abrir uma tela requerendo informações sobre o novo medicamento
-3. Sistema verifica se todas as informações necessárias foram preenchidas e solicita confirmação para cadastro
-4. Sistema salva as informações</t>
-  </si>
-  <si>
-    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
-3. Sistema exibe na tela as informações daquele medicamento
-4. Sistema recebe a solicitação de exclusão e exibe uma mensagem de confirmação da exclusão
-5. Sistema exclui aquele registro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
-3. Sistema exibe na tela as informações daquele medicamento
+    <t>Tirar maior quantidade do que a existente na clínica</t>
+  </si>
+  <si>
+    <t>Editar saída ou entrada de medicamento</t>
+  </si>
+  <si>
+    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
+3. Exibição das informações daquele medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
+3. Exibição da informação de quanto de estoque daquele medicamento há
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
-3. Sistema exibe na tela as informações daquele medicamento
-4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
 </t>
   </si>
   <si>
-    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
-3. Sistema exibe na tela as informações daquele medicamento
-4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
-5. Sistema abre formulário para preenchimento com informações sobre a quantidade que chegou do produto
-6. Sistema confere se todas as informações foram preenchidas da forma correta e solicita confirmação do usuário
-7. Sistema adiciona o valor a quantidade anterior existente</t>
+    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um botão para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
+3. Exibição da informação de quanto de estoque daquele medicamento há
+4. Abre formulário para preenchimento com informações sobre a quantidade que chegou do produto
+5. Solicita confirmação do usuário
+6. Nova quantidade é mostrada na tela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Adicionar quantidade"
+5. Preenche os dados requeridos pelo sistema e clica em "Próximo"
+6. Usuário clica no botão "Confirmar"
+</t>
+  </si>
+  <si>
+    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Tela irá requerer informações sobre o novo medicamento
+3. Solicita confirmação para cadastro
+4. Exibição de uma mensagem de confirmação da confirmação</t>
+  </si>
+  <si>
+    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
+3. Exibição das informações daquele medicamento
+4. Exibição de uma mensagem de confirmação da exclusão
+5. Página com medicamentos que possuam o nome pesquisado ou um nome similar serão exibidos sem aquele registro que acabou de ser excluído</t>
   </si>
   <si>
     <t>1. Selecionar aba "Estoque"
 2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
 3. Usuário seleciona o medicamento e clica no botão "Visualizar"
-4.  Clicar no botão "Visualizar"
-5. Usuário clica no botão "Verificar estoque"
-6. Usuário clica no botão "Tirar quantidade"
-7. Preenche os dados requeridos pelo sistema e clica em "Próximo"
-8. Usuário clica no botão "Confirmar"</t>
-  </si>
-  <si>
-    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
-3. Sistema exibe na tela as informações daquele medicamento
-4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
-5. Sistema abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
-6. Sistema confere se todas as informações foram preenchidas da forma correta e se a quantidade que está saindo é menor ou igual a aquela que existe na clínica e solicita confirmação do usuário
-7. Sistema reduz a quantidade anterior com a que está saindo na clínica</t>
-  </si>
-  <si>
-    <t>Tirar maior quantidade do que a existente na clínica</t>
+4. Usuário clica no botão "Tirar quantidade"
+5. Preenche os dados requeridos pelo sistema e clica em "Próximo"
+6. Usuário clica no botão "Confirmar"</t>
   </si>
   <si>
     <t>1. Selecionar aba "Estoque"
 2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
 3. Usuário seleciona o medicamento e clica no botão "Visualizar"
-4. Usuário clica no botão "Verificar estoque"
-5. Usuário clica no botão "Tirar quantidade"
-6. Preenche os dados requeridos pelo sistema e clica em "Próximo"</t>
-  </si>
-  <si>
-    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
-3. Sistema exibe na tela as informações daquele medicamento
-4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
-5. Sistema abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
-6. Sistema confere se todas as informações foram preenchidas da forma correta e se a quantidade que está saindo é menor do que a quantidade existente na clínica. Visto a quantidade de retirada ser superior a disponível, sistema não da continuidade no processo e exibe a mensagem "Quantidade inexistente para retirada".</t>
-  </si>
-  <si>
-    <t>Editar saída ou entrada de medicamento</t>
+4. Usuário clica no botão "Tirar quantidade"
+5. Preenche os dados requeridos pelo sistema e clica em "Próximo"</t>
+  </si>
+  <si>
+    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
+3. Exibição das informações daquele medicamento
+4. Abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
+5. Solicita confirmação do usuário
+6. Exibe a nova quantidade existente do medicamento</t>
+  </si>
+  <si>
+    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
+3. Exibição das informações daquele medicamento
+4. Abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
+5. Mensagem de erro aparece "Não é possível a retirada de maior quantidade daquela existente"</t>
   </si>
   <si>
     <t>1. Selecionar aba "Estoque"
@@ -838,15 +845,17 @@
 3. Usuário seleciona o medicamento e clica no botão "Visualizar"
 4. Usuário clica no botão "Verificar estoque"
 5. Usuário clica no botão "Editar histórico de saídas e entradas"
-6. Edita os dados requeridos pelo sistema e clica em "Próximo"</t>
-  </si>
-  <si>
-    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Sistema irá procurar os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
-3. Sistema exibe na tela as informações daquele medicamento
-4. Sistema abre nova tela com a informação de quantidade disponível e histórico de saídas e entradas daquele medicamento na clínica
-5. Sistema abre lista de todos os registros de entrada e saída do medicamento
-6. Sistema confere se todas as informações foram preenchidas da forma correta e se a quantidade que está saindo é menor do que a quantidade existente na clínica. Caso não seja, o sistema salva e atualiza a quantidade do produto disponível. Caso seja, sistema não da continuidade no processo e exibe a mensagem "Quantidade inexistente para retirada".</t>
+6. Edita os dados requeridos pelo sistema e clica em "Próximo"
+7. Usuário confirma</t>
+  </si>
+  <si>
+    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
+3. Exibição das informações daquele medicamento
+4. Exibição do histórico de saídas e entradas daquele medicamento na clínica
+5. Abre lista de todos os registros de entrada e saída do medicamento
+6. Abre janela de confirmação
+7. Informações atualizadas são exibidas</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1802,7 +1813,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>26</v>
       </c>
@@ -1813,11 +1824,11 @@
         <v>126</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>26</v>
       </c>
@@ -1828,11 +1839,11 @@
         <v>128</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>26</v>
       </c>
@@ -1847,7 +1858,7 @@
       </c>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
@@ -1855,14 +1866,14 @@
         <v>133</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>145</v>
       </c>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>26</v>
       </c>
@@ -1870,14 +1881,14 @@
         <v>136</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>26</v>
       </c>
@@ -1885,40 +1896,40 @@
         <v>139</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E45" s="16"/>
     </row>

--- a/deprecated/Roteiro_Login.xlsx
+++ b/deprecated/Roteiro_Login.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="1845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18765" windowHeight="60"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
   <si>
     <t>Cenário</t>
   </si>
@@ -760,102 +760,81 @@
     <t>Tirar maior quantidade do que a existente na clínica</t>
   </si>
   <si>
-    <t>Editar saída ou entrada de medicamento</t>
-  </si>
-  <si>
-    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+    <t>1. Exibe página de estoque
+2. Tela irá requerer informações sobre o novo medicamento
+3. Solicita confirmação para cadastro
+4. Exibição de uma mensagem de confirmação da confirmação</t>
+  </si>
+  <si>
+    <t>1. Exibe página de estoque
 2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
 3. Exibição das informações daquele medicamento</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
-3. Exibição da informação de quanto de estoque daquele medicamento há
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
+2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Exibe página de estoque
+2. Exibição dos resultado da pesquisa com a quantidade
 </t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba "Estoque"
 2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
 3. Usuário seleciona o medicamento e clica no botão "Visualizar"
+4. Usuário clica no botão "Modificar quantidade"
+5. Preenche os dados requeridos pelo sistema e clica em "Salvar"
+6. Usuário clica no botão "Confirmar"
 </t>
   </si>
   <si>
-    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um botão para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+    <t>Modificar histórico de entradas e saídas do medicamento</t>
+  </si>
+  <si>
+    <t>1. Exibe página de estoque
 2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
 3. Exibição da informação de quanto de estoque daquele medicamento há
-4. Abre formulário para preenchimento com informações sobre a quantidade que chegou do produto
+4. Abre listagem de entradas e saídas e permite que os campos sejam editáveis
 5. Solicita confirmação do usuário
 6. Nova quantidade é mostrada na tela</t>
+  </si>
+  <si>
+    <t>Adicionar transação do medicamento (entrada ou saída)</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba "Estoque"
 2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
 3. Usuário seleciona o medicamento e clica no botão "Visualizar"
-4. Usuário clica no botão "Adicionar quantidade"
-5. Preenche os dados requeridos pelo sistema e clica em "Próximo"
-6. Usuário clica no botão "Confirmar"
+4. Usuário clica no botão "Adicionar transação"
+5. Preenche os dados requeridos pelo sistema e clica em "Salvar"
+6. Clica em "Confirmar"
 </t>
   </si>
   <si>
-    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Tela irá requerer informações sobre o novo medicamento
-3. Solicita confirmação para cadastro
-4. Exibição de uma mensagem de confirmação da confirmação</t>
-  </si>
-  <si>
-    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+    <t>1. Exibe página de estoque
 2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
-3. Exibição das informações daquele medicamento
-4. Exibição de uma mensagem de confirmação da exclusão
-5. Página com medicamentos que possuam o nome pesquisado ou um nome similar serão exibidos sem aquele registro que acabou de ser excluído</t>
-  </si>
-  <si>
-    <t>1. Selecionar aba "Estoque"
+3. Exibição da informação de quanto de estoque daquele medicamento há
+4. Abre formulário com dados a serem preenchidos
+5. Exibe modal de confirmação
+6. Volta a página de quantidades daquele medicamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Entrar na aba "Estoque"
 2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
 3. Usuário seleciona o medicamento e clica no botão "Visualizar"
-4. Usuário clica no botão "Tirar quantidade"
-5. Preenche os dados requeridos pelo sistema e clica em "Próximo"
-6. Usuário clica no botão "Confirmar"</t>
-  </si>
-  <si>
-    <t>1. Selecionar aba "Estoque"
-2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
-3. Usuário seleciona o medicamento e clica no botão "Visualizar"
-4. Usuário clica no botão "Tirar quantidade"
-5. Preenche os dados requeridos pelo sistema e clica em "Próximo"</t>
-  </si>
-  <si>
-    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+4. Usuário clica no botão "Adicionar transação"
+5. Preenche os dados requeridos pelo sistema e clica em "Salvar"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Exibe página de estoque
 2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
-3. Exibição das informações daquele medicamento
-4. Abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
-5. Solicita confirmação do usuário
-6. Exibe a nova quantidade existente do medicamento</t>
-  </si>
-  <si>
-    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
-3. Exibição das informações daquele medicamento
-4. Abre formulário para preenchimento com informações sobre a quantidade que está saindo do produto
-5. Mensagem de erro aparece "Não é possível a retirada de maior quantidade daquela existente"</t>
-  </si>
-  <si>
-    <t>1. Selecionar aba "Estoque"
-2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
-3. Usuário seleciona o medicamento e clica no botão "Visualizar"
-4. Usuário clica no botão "Verificar estoque"
-5. Usuário clica no botão "Editar histórico de saídas e entradas"
-6. Edita os dados requeridos pelo sistema e clica em "Próximo"
-7. Usuário confirma</t>
-  </si>
-  <si>
-    <t>1. Exibe um campo para pesquisar um medicamento, um campo para adicionar novo medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
-2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
-3. Exibição das informações daquele medicamento
-4. Exibição do histórico de saídas e entradas daquele medicamento na clínica
-5. Abre lista de todos os registros de entrada e saída do medicamento
-6. Abre janela de confirmação
-7. Informações atualizadas são exibidas</t>
+3. Exibição da informação de quanto de estoque daquele medicamento há
+4. Abre formulário com dados a serem preenchidos
+5. Exibe mensagem de erro "Quantidade de saída solicitada superior a existente"
+</t>
   </si>
 </sst>
 </file>
@@ -1232,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1792,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>26</v>
       </c>
@@ -1824,114 +1803,89 @@
         <v>126</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="16"/>
+    </row>
+    <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>

--- a/deprecated/Roteiro_Login.xlsx
+++ b/deprecated/Roteiro_Login.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="164">
   <si>
     <t>Cenário</t>
   </si>
@@ -65,39 +65,7 @@
     <t>Cadastro de novo tutor</t>
   </si>
   <si>
-    <t>1. Ir na aba "Cadastro tutor"
-2. Clicar no botão "Novo cadastro"
-3. Preencher os dados de nome Matheus, Endereço Alameda dos Arapanés 1.441, CPF 012.032.761-89, Telefone (11) 3726-6207, E-mail matheus.leal@hotmail.com
-4. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro tutor"
-2. Clicar no botão "Novo cadastro"
-3. Preencher os dados de do tutor
-4. Clicar em "Salvar"</t>
-  </si>
-  <si>
     <t>Editar cadastro de um tutor</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro tutor"
-2. Escrever o nome do tutor João
-3. Clicar no botão "Pesquisar"
-4. Procurar dentre todos os registros de João, o tutor que se deve editar o cadastro, João Almeida Silva Pereira
-5. Clicar no registro, fazendo com que esse abra
-6. Clicar em "Editar"
-7. Alterar os dados necessários
-8. Clicar em "Salvar"</t>
-  </si>
-  <si>
-    <t>1. Ir na aba "Cadastro tutor"
-2. Escrever o nome do tutor cujos dados deverão ser alterados
-3. Clicar no botão "Pesquisar"
-4. Procurar dentre todos os registros que apareceram na pesquisa, o tutor que se deve editar o cadastro
-5. Clicar no registro, fazendo com que esse abra
-6. Clicar em "Editar"
-7. Alterar os dados necessários
-8. Clicar em "Salvar"</t>
   </si>
   <si>
     <t>Cadastro animal</t>
@@ -835,6 +803,81 @@
 4. Abre formulário com dados a serem preenchidos
 5. Exibe mensagem de erro "Quantidade de saída solicitada superior a existente"
 </t>
+  </si>
+  <si>
+    <t>1. Clica na aba "Cadastro tutor"
+2. Clicar no botão "Novo cadastro"
+3. Preencher os dados de solicitados para o cadastro e clica em "Salvar"
+4. Clica em "Confirmar"</t>
+  </si>
+  <si>
+    <t>1. Abre aba de cadastro de tutores
+2. Exibe formulário para preenchimento com dados do tutor a ser cadastrado
+3. Exibe modal de confirmação
+4. Exibe cadastro feito</t>
+  </si>
+  <si>
+    <t>1. Clica na aba "Cadastro tutor"
+2. Coloca o nome do tutor no campo de pesquisa e clica em "Pesquisar"
+3. Seleciona o tutor de interesse e clica em "Visualizar"
+4. Clica em "Editar"
+5. Preenche os dados e clica em "Salvar"
+6. Clica em "Confirmar"</t>
+  </si>
+  <si>
+    <t>1. Abre aba de cadastro de tutores
+2. Exibe tutores com o nome pesquisado ou com o nome similar
+3. Abre cadastro do tutor selecionado
+4. Os campos do cadastro virão editáveis
+5. Exibe modal de confirmação de dados
+6. Exibe cadastro do tutor com dados modificados</t>
+  </si>
+  <si>
+    <t>Editar cadastro de um tutor com dados inválidos</t>
+  </si>
+  <si>
+    <t>1. Clica na aba "Cadastro tutor"
+2. Coloca o nome do tutor no campo de pesquisa e clica em "Pesquisar"
+3. Seleciona o tutor de interesse e clica em "Visualizar"
+4. Clica em "Editar"
+5. Preenche os dados e clica em "Salvar"</t>
+  </si>
+  <si>
+    <t>1. Abre aba de cadastro de tutores
+2. Exibe tutores com o nome pesquisado ou com o nome similar
+3. Abre cadastro do tutor selecionado
+4. Os campos do cadastro virão editáveis
+5. Exibe mensagem de erro "Dados inseridos inválidos."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelar cadastro de um tutor </t>
+  </si>
+  <si>
+    <t>1. Clica na aba "Cadastro tutor"
+2. Clicar no botão "Novo cadastro"
+3. Clicar em "Cancelar"</t>
+  </si>
+  <si>
+    <t>1. Abre aba de cadastro de tutores
+2. Exibe formulário para preenchimento com dados do tutor a ser cadastrado
+3. Exibe tela inicial do cadastro de tutores</t>
+  </si>
+  <si>
+    <t>Cancelar edição do cadastro de um tutor</t>
+  </si>
+  <si>
+    <t>1. Clica na aba "Cadastro tutor"
+2. Coloca o nome do tutor no campo de pesquisa e clica em "Pesquisar"
+3. Seleciona o tutor de interesse e clica em "Visualizar"
+4. Clica em "Editar"
+5. Clica em "Cancelar"</t>
+  </si>
+  <si>
+    <t>1. Abre aba de cadastro de tutores
+2. Exibe tutores com o nome pesquisado ou com o nome similar
+3. Abre cadastro do tutor selecionado
+4. Os campos do cadastro virão editáveis
+5. Exibe página inicial do cadastro de tutores</t>
   </si>
 </sst>
 </file>
@@ -1211,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1253,10 +1296,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1268,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1280,13 +1323,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1295,13 +1338,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1310,13 +1353,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1328,10 +1371,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
@@ -1345,10 +1388,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
@@ -1361,10 +1404,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
@@ -1374,18 +1417,18 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1393,499 +1436,547 @@
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>163</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="16"/>
+    <row r="38" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="13" t="s">
+      <c r="D46" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+    </row>
+    <row r="47" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="0"/>
@@ -1905,32 +1996,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1955,87 +2046,87 @@
   <sheetData>
     <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/deprecated/Roteiro_Login.xlsx
+++ b/deprecated/Roteiro_Login.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3E3F18-1EF4-452A-8CE0-0A24DBF686BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Planilha3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,92 +33,92 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="176">
-  <si>
-    <t xml:space="preserve">Cenário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caso de teste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roteiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado Esperado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login de usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login)
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="170">
+  <si>
+    <t>Cenário</t>
+  </si>
+  <si>
+    <t>Caso de teste</t>
+  </si>
+  <si>
+    <t>Roteiro</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Sucesso</t>
+  </si>
+  <si>
+    <t>Login de usuário</t>
+  </si>
+  <si>
+    <t>Login com sucesso</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
 2. Inserir email cadastrado, código da clínica no qual se deseja logar e a senha e pressionar o botão "Login"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+    <t>1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
 2. Requisição ao banco de dados com a validação das informações preenchidas e login realizado com sucesso</t>
   </si>
   <si>
-    <t xml:space="preserve">Usuário não cadastrado tentando login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Usuário não cadastrado tentando login</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
 2. Inserir email não cadastrado, código da clínica no qual se deseja logar e a senha e pressionar o botão "Login"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+    <t>1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
 2. Requisição ao banco de dados com a validação das informações preenchidas e, visto a inexistência do usuário no banco de dados, aparecerá uma mensagem logo acima dos campos de preenchimento com a mensagem "Este e-mail não tem uma conta"</t>
   </si>
   <si>
-    <t xml:space="preserve">Usuário tentando logar com código da clínica e/ou senha inválida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
+    <t>Usuário tentando logar com código da clínica e/ou senha inválida</t>
+  </si>
+  <si>
+    <t>1. Exibir a tela de login e campos para preenchimento de e-mail, código da clínica e senha são exibidos 
 2. Requisição ao banco de dados com a validação das informações preenchidas e, visto que o código da clínica e/ou a senha estão errados, então o usuário receberá uma mensagem logo em cima do campo de e-mail dizendo "O código da clínica e/ou a senha estão errados" e o login não será feito</t>
   </si>
   <si>
-    <t xml:space="preserve">Usuário cadastrado realizando reset de senha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Usuário cadastrado realizando reset de senha</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
 2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
 3. Preencher o e-mail cadastrado no campo de e-mail que aparecerá e clicar no botão "Próximo"
 4. Entrar no e-mail e clicar no botão de "Mudar a senha" no e-mail que foi este recebeu da CertVet
 5. Inserir a senha de interesse e clicar em salvar</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login e um botão "Redefinir minha senha" será exibido
+    <t>1. Carregar a tela de login e um botão "Redefinir minha senha" será exibido
 2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha e um campo de "e-mail" será exibido
 3. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, caso haja, enviará um e-mail a este usuário para dar continuidade ao processo de redefinição de senha
 4. Quando o cliente clicar em "Mudar a senha", será feito uma requisição para abrir uma página de redefinição de senha e campo de "Nova senha" será exibido
 5. Requisição ao banco de dados onde será feira uma atualização na senha do cadastro desse usuário</t>
   </si>
   <si>
-    <t xml:space="preserve">Usuário não cadastrado realizando reset de senha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Usuário não cadastrado realizando reset de senha</t>
+  </si>
+  <si>
+    <t>1. Acessar a URL de login (&lt;host&gt;:3000/login)
 2. Clicar no botão que fica logo abaixo do campo de senha: "Redefinir minha senha"
 3. Preencher o e-mail no campo de e-mail que aparecerá e clicar no botão "Próximo"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login e um botão "Redefinir minha senha" será exibido
+    <t>1. Carregar a tela de login e um botão "Redefinir minha senha" será exibido
 2. Requisição será feita para ir para outra página onde se iniciará o processo de redefinição da senha e um campo de "e-mail" será exibido
 3. Requisição feita nesse momento irá primeiro verificar no banco de dados a existência de um usuário com esse login e, não havendo, uma mensagem irá aparecer "E-mail não cadastrado"</t>
   </si>
   <si>
-    <t xml:space="preserve">Agendamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionário realizando um agendamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Funcionário entra na aba de "Agendamentos"
+    <t>Agendamento</t>
+  </si>
+  <si>
+    <t>Funcionário realizando um agendamento</t>
+  </si>
+  <si>
+    <t>1. Funcionário entra na aba de "Agendamentos"
 2. Funcionário seleciona o ano, mês, dia e horário que deseja marcar 
 3. Seleciona o ano, mês 
 4. Clica no dia escolhido
@@ -127,10 +138,10 @@
 8. Sistema transfere as informações digitadas no banco de dados </t>
   </si>
   <si>
-    <t xml:space="preserve">Desistência de marcar um agendamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Funcionário entra na aba de "Agendamentos"
+    <t>Desistência de marcar um agendamento</t>
+  </si>
+  <si>
+    <t>1. Funcionário entra na aba de "Agendamentos"
 2. Olha o calendário que abrirá na página 
 3. Seleciona o ano, mês que a consulta está marcada
 4. Clica no dia em que a consulta está marcada
@@ -148,10 +159,10 @@
 7. Sistema apaga as informações daquela determinada consulta no banco de dados </t>
   </si>
   <si>
-    <t xml:space="preserve">Mudança de dia e horário de um agendamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Funcionário entra na aba de "Agendamentos"
+    <t>Mudança de dia e horário de um agendamento</t>
+  </si>
+  <si>
+    <t>1. Funcionário entra na aba de "Agendamentos"
 2. Olha o calendário que abrirá na página 
 3. Seleciona o ano, mês que está marcado o agendamento a ser modificado
 4. Clica no dia que está marcado o agendamento a ser modificado
@@ -162,7 +173,7 @@
 9. Clica no botão "Confirmar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Sistema carrega a página de agendamentos
+    <t>1. Sistema carrega a página de agendamentos
 2. Uma requisição será realizada para trazer ao usuário um calendário com todos os agendamentos
 3. Calendário carrega informações conforme o usuário vai passando de mês em mês
 4. Ao clicar no dia, o sistema irá expandir aquele determinado dia no qual o atendimento escontra-se marcado
@@ -173,10 +184,10 @@
 9. Sistema transfere as informações digitadas no banco de dados</t>
   </si>
   <si>
-    <t xml:space="preserve">Tentar agendar uma nova consulta em um horário indisponível</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Funcionário entra na aba de "Agendamentos"
+    <t>Tentar agendar uma nova consulta em um horário indisponível</t>
+  </si>
+  <si>
+    <t>1. Funcionário entra na aba de "Agendamentos"
 2. Olha o calendário que abrirá na página 
 3. Seleciona o ano e mês
 4. Clica no dia que quer fazer o agendamento
@@ -190,28 +201,28 @@
 5. Ao clicar no horário, o sistema verificará que aquele horário não é viável e não permitirá a continuidade do processo </t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro Tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastro de novo tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clica na aba "Cadastro tutor"
+    <t>Cadastro Tutor</t>
+  </si>
+  <si>
+    <t>Cadastro de novo tutor</t>
+  </si>
+  <si>
+    <t>1. Clica na aba "Cadastro tutor"
 2. Clicar no botão "Novo cadastro"
 3. Preencher os dados de solicitados para o cadastro e clica em "Salvar"
 4. Clica em "Confirmar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Abre aba de cadastro de tutores
+    <t>1. Abre aba de cadastro de tutores
 2. Exibe formulário para preenchimento com dados do tutor a ser cadastrado
 3. Exibe modal de confirmação
 4. Exibe cadastro feito</t>
   </si>
   <si>
-    <t xml:space="preserve">Editar cadastro de um tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clica na aba "Cadastro tutor"
+    <t>Editar cadastro de um tutor</t>
+  </si>
+  <si>
+    <t>1. Clica na aba "Cadastro tutor"
 2. Coloca o nome do tutor no campo de pesquisa e clica em "Pesquisar"
 3. Seleciona o tutor de interesse e clica em "Visualizar"
 4. Clica em "Editar"
@@ -219,7 +230,7 @@
 6. Clica em "Confirmar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Abre aba de cadastro de tutores
+    <t>1. Abre aba de cadastro de tutores
 2. Exibe tutores com o nome pesquisado ou com o nome similar
 3. Abre cadastro do tutor selecionado
 4. Os campos do cadastro virão editáveis
@@ -227,17 +238,17 @@
 6. Exibe cadastro do tutor com dados modificados</t>
   </si>
   <si>
-    <t xml:space="preserve">Editar cadastro de um tutor com dados inválidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clica na aba "Cadastro tutor"
+    <t>Editar cadastro de um tutor com dados inválidos</t>
+  </si>
+  <si>
+    <t>1. Clica na aba "Cadastro tutor"
 2. Coloca o nome do tutor no campo de pesquisa e clica em "Pesquisar"
 3. Seleciona o tutor de interesse e clica em "Visualizar"
 4. Clica em "Editar"
 5. Preenche os dados e clica em "Salvar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Abre aba de cadastro de tutores
+    <t>1. Abre aba de cadastro de tutores
 2. Exibe tutores com o nome pesquisado ou com o nome similar
 3. Abre cadastro do tutor selecionado
 4. Os campos do cadastro virão editáveis
@@ -247,256 +258,228 @@
     <t xml:space="preserve">Cancelar cadastro de um tutor </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Clica na aba "Cadastro tutor"
+    <t>1. Clica na aba "Cadastro tutor"
 2. Clicar no botão "Novo cadastro"
 3. Clicar em "Cancelar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Abre aba de cadastro de tutores
+    <t>1. Abre aba de cadastro de tutores
 2. Exibe formulário para preenchimento com dados do tutor a ser cadastrado
 3. Exibe tela inicial do cadastro de tutores</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancelar edição do cadastro de um tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clica na aba "Cadastro tutor"
+    <t>Cancelar edição do cadastro de um tutor</t>
+  </si>
+  <si>
+    <t>1. Clica na aba "Cadastro tutor"
 2. Coloca o nome do tutor no campo de pesquisa e clica em "Pesquisar"
 3. Seleciona o tutor de interesse e clica em "Visualizar"
 4. Clica em "Editar"
 5. Clica em "Cancelar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Abre aba de cadastro de tutores
+    <t>1. Abre aba de cadastro de tutores
 2. Exibe tutores com o nome pesquisado ou com o nome similar
 3. Abre cadastro do tutor selecionado
 4. Os campos do cadastro virão editáveis
 5. Exibe página inicial do cadastro de tutores</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastro de novo animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clica no botão “Adicionar”
-2. Preenchimento dos dados do animal e clica no botão “Finalizar”
-3. Clica no botão “Confirmar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Abre formulário para preenchimento dos dados do animal
-2. Abre modal com os dados do animal para confirmação do cadastro
-3. Abre aba do tutor com o cadastro de todos os animais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desistência do cadastro de animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clica no botão “Adicionar”
-2. Preenchimento dos dados do animal e clica no botão “Cancelar”
-3. Clica no botão “Sair”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Abre formulário para preenchimento dos dados do animal
-2. Abre modal para confirmar o cancelamento do cadastro
-3. Volta a aba do tutor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesquisar cadastro de animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Preenche o nome do animal a ser pesquisado no campo “Busca” e clica no botão em formato de lupa
+    <t>Cadastro animal</t>
+  </si>
+  <si>
+    <t>Cadastro de novo animal</t>
+  </si>
+  <si>
+    <t>1. Clica no botão “Adicionar”
+2. Preenchimento dos dados do animal e clica no botão “Finalizar”</t>
+  </si>
+  <si>
+    <t>1. Abre formulário para preenchimento dos dados do animal
+2. Abre aba do tutor com o cadastro de todos os animais</t>
+  </si>
+  <si>
+    <t>Desistência do cadastro de animal</t>
+  </si>
+  <si>
+    <t>1. Clica no botão “Adicionar”
+2. Preenchimento dos dados do animal e clica no botão “Cancelar”</t>
+  </si>
+  <si>
+    <t>1. Abre formulário para preenchimento dos dados do animal
+2. Volta a aba do tutor</t>
+  </si>
+  <si>
+    <t>Pesquisar cadastro de animal</t>
+  </si>
+  <si>
+    <t>1. Preenche o nome do animal a ser pesquisado no campo “Busca” e clica no botão em formato de lupa
 2. Clica no nome do animal requerido e clica em “Visualizar”</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Todos os animais com aquele nome ou algum nome parecido é exibido
+    <t>1. Todos os animais com aquele nome ou algum nome parecido é exibido
 2. O cadastro do animal é exibido</t>
   </si>
   <si>
-    <t xml:space="preserve">Editar cadastro de animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar no botão “Editar”
-2. Modificar os dados requeridos e clicar em “Salvar”
-3. Clicar em “Confirmar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Abre o formulário do animal com os dados possíveis para serem editados
-2. Abre um modal solicitando a confirmação do usuário
-3. Volta à página do tutor com todos os animais deste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluir cadastro de animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar no botão “Excluir”
-2. Clicar no botão “Confirmar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Abre modal de confirmação da exclusão do cadastro do animal
-2. Abre a página do tutor sem o cadastro do animal excluído</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desistência da exclusão de cadastro de animal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Clicar no botão “Excluir”
-2. Clicar no botão “Cancelar”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Abre modal de confirmação da exclusão do cadastro do animal
-2. Abre a página do tutor sem alteração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastro de usuário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastro de usuário administrador não veterinário concluído com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Editar cadastro de animal</t>
+  </si>
+  <si>
+    <t>1. Clicar no botão “Editar”
+2. Modificar os dados requeridos e clicar em “Salvar”</t>
+  </si>
+  <si>
+    <t>1. Abre o formulário do animal com os dados possíveis para serem editados
+2. Volta à página do tutor com todos os animais deste</t>
+  </si>
+  <si>
+    <t>Cadastro de usuário</t>
+  </si>
+  <si>
+    <t>Cadastro de usuário administrador não veterinário concluído com sucesso</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário
 1.2 Selecionar opção negativa no campo "Veterinário"
 1.3 Informar o plano de serviço desejado
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV não é obrigatório
 1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
 2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para a tela inicial da CertVet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de usuário administrador veterinário concluído com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Cadastro de usuário administrador veterinário concluído com sucesso</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.2 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário
 1.3 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
 1.4 Informar o plano de serviço desejado
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.2 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
 1.3 Preenchimento do número de CRMV torna-se obrigatório
 1.4 Plano escolhido pelo usuário é exibido na caixa de seleção
 2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para a tela inicial da CertVet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de usuário administrador veterinário não concluído devido o não preenchimento do campo obrigatório CPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Cadastro de usuário administrador veterinário não concluído devido o não preenchimento do campo obrigatório CPF</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário exceto campo CPF
 1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
 1.3 Informar o plano de serviço desejado
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo indicado com preenchimento incorreto</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de usuário administrador veterinário não concluído devido a invalidação do CPF informado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Cadastro de usuário administrador veterinário não concluído devido a invalidação do CPF informado</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos, exceto o campo CPF, este deve ser preenchido com um número aleatório
 1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
 1.3 Informar o plano de serviço desejado
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo CPF, indicado com preenchimento incorreto</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de usuário administrador veterinário não concluído devido e-mail informado ser inválido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Cadastro de usuário administrador veterinário não concluído devido e-mail informado ser inválido</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos, exceto o campo e-mail, este deve ser preenchido com um valor aleatório e inválido
 1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
 1.3 Informar o plano de serviço desejado
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo e-mail, indicado com preenchimento incorreto</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de usuário administrador veterinário não concluído devido a incompatibilidade de senhas informadas nos campos "Senha" e "Confirmar senha"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Cadastro de usuário administrador veterinário não concluído devido a incompatibilidade de senhas informadas nos campos "Senha" e "Confirmar senha"</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos. No entanto, preencher o campo "Senha" com um valor e o campo "Confirmar senha" com um valor diferente.
 1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
 1.3 Informar o plano de serviço desejado
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 1.3 Plano escolhido pelo usuário é exibido na caixa de seleção
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo de confirmação de senha, indicado com preenchimento incompativel com o campo "Senha"</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de funcionário como usuário administrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastro de primeiro funcionário veterinário concluído com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. No painel incial, clicar em "Funcionários"
+    <t>Cadastro de funcionário como usuário administrador</t>
+  </si>
+  <si>
+    <t>Cadastro de primeiro funcionário veterinário concluído com sucesso</t>
+  </si>
+  <si>
+    <t>1. No painel incial, clicar em "Funcionários"
 1.1 Selecionar o botão "Cadastrar" e preencher os campos do formulário
 1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
+    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
 1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para uma tabela com os funcionários cadastrados listados</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro novo funcionário veterinário concluído com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
+    <t>Cadastro novo funcionário veterinário concluído com sucesso</t>
+  </si>
+  <si>
+    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
 1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para uma tabela com os funcionários cadastrados listados</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de funcionário não concluído devido a não seleção de clínica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. No painel incial, clicar em "Funcionários"
+    <t>Cadastro de funcionário não concluído devido a não seleção de clínica</t>
+  </si>
+  <si>
+    <t>1. No painel incial, clicar em "Funcionários"
 1.1 Selecionar o botão "Cadastrar" e preencher todos os campos do formulário, exceto o campo Clínica
 1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
+    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
 1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a seleção da clínica no campo indicado com preenchimento incorreto</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de funcionário veterinário não concluído devido ao preenchimento de número de CRMV inválido</t>
+    <t>Cadastro de funcionário veterinário não concluído devido ao preenchimento de número de CRMV inválido</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -506,28 +489,28 @@
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
+    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
 1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo CRMV indicado com preenchimento incorreto</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de funcionário veterinário não concluído não concluído devido e-mail informado ser inválido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. No painel incial, clicar em "Funcionários"
+    <t>Cadastro de funcionário veterinário não concluído não concluído devido e-mail informado ser inválido</t>
+  </si>
+  <si>
+    <t>1. No painel incial, clicar em "Funcionários"
 1.1 Selecionar o botão "Cadastrar" e preencher todos os campos do formulário com dados válidos, exceto o campo e-mail, este deve ser preenchido com um valor aleatório e inválido
 1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
+    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
 1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo e-mail, indicado com preenchimento incorreto</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de funcionário veterinário não concluído não concluído devido a incompatibilidade de senhas informadas nos campos "Senha" e "Confirmar senha"</t>
+    <t>Cadastro de funcionário veterinário não concluído não concluído devido a incompatibilidade de senhas informadas nos campos "Senha" e "Confirmar senha"</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -537,16 +520,16 @@
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
+    <t>1. Um texto informativo sobre não ter sido encontrado nenhum funcionário cadastrado deve ser exibido na tela, junto com um botão "Cadastrar"
 1.1 Deve ser exibido o formulário de cadastro do funcionário indicando os campos de preenchimento obrigatório
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo de confirmação de senha, indicado com preenchimento incompativel com o campo "Senha"</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerenciamento de funcionário da clínica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesquisar por funcionário com sucesso</t>
+    <t>Gerenciamento de funcionário da clínica</t>
+  </si>
+  <si>
+    <t>Pesquisar por funcionário com sucesso</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -555,18 +538,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
+    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
 2. Deve ser exibida uma lista contendo apenas os funcionários com o nome pesquisado</t>
   </si>
   <si>
     <t xml:space="preserve">Pesquisar por funcionário não cadastrado </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
+    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
 2. Deve ser exibida uma mensagem informando que não foi encontrado nenhum funcionário com o nome pesquisado</t>
   </si>
   <si>
-    <t xml:space="preserve">Consultar dados de funcionário</t>
+    <t>Consultar dados de funcionário</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -576,12 +559,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
+    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
 2. Deve ser exibida uma lista contendo apenas os funcionários com o nome pesquisado
 3. Deve ser exibido um modal contendo os demais dados relacionados ao funcionário</t>
   </si>
   <si>
-    <t xml:space="preserve">Editar dados de funcionário</t>
+    <t>Editar dados de funcionário</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -591,13 +574,13 @@
 4. Selecionar o botão "Confirmar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
+    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
 2. Deve ser exibida uma lista contendo apenas os funcionários com o nome pesquisado
 3. A tela deve ser redirecionada a um formulário contendo os dados persistidos para este funcionário
 4. Observar exibição de banner verde com mensagem de edição concluída com sucesso. A tela será redirecionada para uma tabela com os funcionários cadastrados listados</t>
   </si>
   <si>
-    <t xml:space="preserve">Excluir funcionário</t>
+    <t>Excluir funcionário</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -608,124 +591,124 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
+    <t>1. Uma lista com todos os funcionários cadastrados deve ser exibida na tela, informando seu nome, ocupação e operações de leitura, consulta e remoção 
 2. Deve ser exibida uma lista contendo apenas os funcionários com o nome pesquisado
 3. Deve ser exibido um modal para confirmação da exclusão do funcionário
 3.1 Observar exibição de banner verde com mensagem de exclusão concluída com sucesso. A tela será redirecionada para uma tabela com os funcionários cadastrados listados</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de funcionário como usuário funcionário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completar cadastro de funcionário veterinário com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Cadastro de funcionário como usuário funcionário</t>
+  </si>
+  <si>
+    <t>Completar cadastro de funcionário veterinário com sucesso</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário
 1.2 Selecionar opção afirmativa no campo "Veterinário" e preencher número de CRMV válido
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
 1.2 Preenchimento do número de CRMV torna-se obrigatório
 2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para a tela inicial da CertVet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Completar cadastro de funcionário não veterinário com sucesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Completar cadastro de funcionário não veterinário com sucesso</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário
 1.2 Selecionar opção negativa no campo "Veterinário"
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
 1.2 Preenchimento do número de CRMV não é obrigatório
 2. Observar exibição de banner verde com mensagem de cadastro concluído com sucesso. A tela será redirecionada para o painel inicial da CertVet.</t>
   </si>
   <si>
-    <t xml:space="preserve">Completar cadastro de funcionário não veterinário não concluído devido o não preenchimento do campo obrigatório CPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Completar cadastro de funcionário não veterinário não concluído devido o não preenchimento do campo obrigatório CPF</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher os campos do formulário exceto campo CPF
 1.2 Selecionar opção negativa no campo "Veterinário"
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
 1.2 Preenchimento do número de CRMV não é obrigatório
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo indicado com preenchimento incorreto</t>
   </si>
   <si>
-    <t xml:space="preserve">Completar cadastro de funcionário não veterinário não concluído devido a invalidação do CPF informado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Completar cadastro de funcionário não veterinário não concluído devido a invalidação do CPF informado</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos, exceto o campo CPF, este deve ser preenchido com um número aleatório
 1.2 Selecionar opção negativa no campo "Veterinário"
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
 1.2 Preenchimento do número de CRMV não é obrigatório
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo CPF, indicado com preenchimento incorreto</t>
   </si>
   <si>
-    <t xml:space="preserve">Completar cadastro de funcionário não veterinário não concluído devido e-mail informado ser inválido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Completar cadastro de funcionário não veterinário não concluído devido e-mail informado ser inválido</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos, exceto o campo e-mail, este deve ser preenchido com um valor aleatório e inválido
 1.2 Selecionar opção negativa no campo "Veterinário" e preencher número de CRMV válido
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
 1.2 Preenchimento do número de CRMV não é obrigatório
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo e-mail, indicado com preenchimento incorreto</t>
   </si>
   <si>
-    <t xml:space="preserve">Completar cadastro de funcionário não veterinário não concluído devido a incompatibilidade de senhas informadas nos campos "Senha" e "Confirmar senha"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
+    <t>Completar cadastro de funcionário não veterinário não concluído devido a incompatibilidade de senhas informadas nos campos "Senha" e "Confirmar senha"</t>
+  </si>
+  <si>
+    <t>1. Ao acessar a URL de login (&lt;host&gt;:3000/login)
 1.1 Selecionar o botão "Cadastrar-se" e preencher todos os campos do formulário com dados válidos. No entanto, preencher o campo "Senha" com um valor e o campo "Confirmar senha" com um valor diferente.
 1.2 Selecionar opção negativa no campo "Veterinário" e preencher número de CRMV válido
 2. Selecionar o botão "Cadastrar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Carregar a tela de login
+    <t>1. Carregar a tela de login
 1.1 Deve ser exibido o formulário de cadastro indicando os campos de preenchimento obrigatório e os campos já preenchidos pelo usuário administrador
 1.2 Preenchimento do número de CRMV não é obrigatório
 2. Observar exibição de banner vermelho com mensagem de cadastro não efetuado. A tela será mantida no formulário de cadastro esperando a correção do campo de confirmação de senha, indicado com preenchimento incompativel com o campo "Senha"</t>
   </si>
   <si>
-    <t xml:space="preserve">Estoque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cadastrar novo medicamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Entrar na aba "Estoque"
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>Cadastrar novo medicamento</t>
+  </si>
+  <si>
+    <t>1. Entrar na aba "Estoque"
 2. Clica no botão "Adicionar um medicamento"
 3. Funcionário preenche as informações do novo medicamento como estado-membro/EEE, requerente/titular da autorização de introdução no mercado, nome fantasia do medicamento, substância ativa, dosagem, forma farmacêutica, espécie-alvo, via de administração e clica em "Adicionar"
 4. Funcionário clica em "Confirmar"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Exibe página de estoque
+    <t>1. Exibe página de estoque
 2. Tela irá requerer informações sobre o novo medicamento
 3. Solicita confirmação para cadastro
 4. Exibição de uma mensagem de confirmação da confirmação</t>
   </si>
   <si>
-    <t xml:space="preserve">Pesquisar medicamento</t>
+    <t>Pesquisar medicamento</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba "Estoque"
@@ -734,12 +717,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Exibe página de estoque
+    <t>1. Exibe página de estoque
 2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
 3. Exibição das informações daquele medicamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Verificar quantidade disponível do medicamento</t>
+    <t>Verificar quantidade disponível do medicamento</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba "Estoque"
@@ -752,7 +735,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Modificar histórico de entradas e saídas do medicamento</t>
+    <t>Modificar histórico de entradas e saídas do medicamento</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba "Estoque"
@@ -764,7 +747,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Exibe página de estoque
+    <t>1. Exibe página de estoque
 2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
 3. Exibição da informação de quanto de estoque daquele medicamento há
 4. Abre listagem de entradas e saídas e permite que os campos sejam editáveis
@@ -772,7 +755,7 @@
 6. Nova quantidade é mostrada na tela</t>
   </si>
   <si>
-    <t xml:space="preserve">Adicionar transação do medicamento (entrada ou saída)</t>
+    <t>Adicionar transação do medicamento (entrada ou saída)</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba "Estoque"
@@ -784,7 +767,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Exibe página de estoque
+    <t>1. Exibe página de estoque
 2. Medicamentos que possuam aquele nome ou um nome similar serão exibidos
 3. Exibição da informação de quanto de estoque daquele medicamento há
 4. Abre formulário com dados a serem preenchidos
@@ -792,7 +775,7 @@
 6. Volta a página de quantidades daquele medicamento</t>
   </si>
   <si>
-    <t xml:space="preserve">Tirar maior quantidade do que a existente na clínica</t>
+    <t>Tirar maior quantidade do que a existente na clínica</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba "Estoque"
@@ -811,38 +794,38 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastrar novo produto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver quantidade disponivel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar itens do produto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retirar itens do produto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pesquisar produto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+    <t>Cadastrar novo produto</t>
+  </si>
+  <si>
+    <t>Ver quantidade disponivel</t>
+  </si>
+  <si>
+    <t>Adicionar itens do produto</t>
+  </si>
+  <si>
+    <t>Retirar itens do produto</t>
+  </si>
+  <si>
+    <t>Pesquisar produto</t>
+  </si>
+  <si>
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
 2. Sistema irá abrir uma tela requerendo informações sobre o novo medicamento
 3. Sistema verifica se todas as informações necessárias foram preenchidas e solicita confirmação para cadastro
 4. Sistema faz uma requisição para adiocionar o medicamento no banco de dados</t>
   </si>
   <si>
-    <t xml:space="preserve">Deletar medicamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Entrar na aba "Estoque"
+    <t>Deletar medicamento</t>
+  </si>
+  <si>
+    <t>1. Entrar na aba "Estoque"
 2. Preencher o nome do medicamento no campo de pesquisa e clicar no botão "Pesquisar"
 3. Usuário seleciona o medicamento e clica no botão "Visualizar"
 4. Usuário clica no botão "Excluir"
 5. Usuário confirma a exclusão</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
+    <t>1. Sistema irá mostrar um campo para pesquisar um medicamento, um campo para adicionar novo medicamento, um para deletar um medicamento e uma tabela com os medicamentos que já se encontram cadastrados.
 2. Sistema irá procurar em seu banco de dados os medicamentos que contém aquele nome ou algum nome similar e mostrará na tela
 3. Sistema solicita as informações daquele determinado produto e exibe na tela
 4. Sistema recebe a solicitação de exclusão e exibe uma mensagem de confirmação da exclusão
@@ -869,7 +852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Adicionar quantidade ao medicamento</t>
+    <t>Adicionar quantidade ao medicamento</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba "Estoque"
@@ -892,7 +875,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tirar quantidade ao medicamento</t>
+    <t>Tirar quantidade ao medicamento</t>
   </si>
   <si>
     <t xml:space="preserve">1. Entrar na aba "Estoque"
@@ -918,38 +901,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -968,168 +939,433 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 3" xfId="20"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1048574"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="62.69921875" defaultRowHeight="30.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="62.7109375" defaultRowHeight="30.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="1" width="62.7"/>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="62.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="21" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1397,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6" ht="30.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1176,7 +1412,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:6" ht="30.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1427,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:6" ht="30.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1442,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:6" ht="30.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1221,7 +1457,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="210.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:6" ht="210.75">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1236,9 +1472,8 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" spans="1:6" ht="23.25" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1254,7 +1489,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1270,7 +1505,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:6" ht="39" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1521,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:6" ht="71.25" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1302,7 +1537,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="130.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:6" ht="130.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1318,7 +1553,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" ht="71.25" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1334,7 +1569,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" ht="71.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1350,7 +1585,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="139.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" ht="139.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1366,7 +1601,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="87.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" ht="87.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1376,12 +1611,12 @@
       <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="168.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="168.6" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -1396,7 +1631,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="168.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" customFormat="1" ht="168.6" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>49</v>
       </c>
@@ -1413,7 +1648,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" s="8" customFormat="true" ht="168.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" customFormat="1" ht="168.6" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -1430,41 +1665,39 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" s="8" customFormat="true" ht="168.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" ht="30.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="30.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>69</v>
@@ -1475,11 +1708,11 @@
       <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="30.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>72</v>
@@ -1490,11 +1723,11 @@
       <c r="D23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="30.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>75</v>
@@ -1505,11 +1738,11 @@
       <c r="D24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="30.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>78</v>
@@ -1520,71 +1753,71 @@
       <c r="D25" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="30.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="30.75" customHeight="1">
       <c r="A28" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="30.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>93</v>
@@ -1595,11 +1828,11 @@
       <c r="D30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="30.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>96</v>
@@ -1610,71 +1843,71 @@
       <c r="D31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="30.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" ht="30.75" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" ht="30.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>111</v>
@@ -1685,41 +1918,41 @@
       <c r="D36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="30.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="B38" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="30.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>121</v>
@@ -1730,11 +1963,11 @@
       <c r="D39" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="30.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>124</v>
@@ -1745,11 +1978,11 @@
       <c r="D40" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="30.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>127</v>
@@ -1760,11 +1993,11 @@
       <c r="D41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="30.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>130</v>
@@ -1775,310 +2008,257 @@
       <c r="D42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" ht="72.75" customHeight="1">
+      <c r="A43" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="C43" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="D43" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" ht="72.75" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="C44" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" ht="72.75" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" ht="72.75" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" ht="93" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" customFormat="false" ht="93" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="49" spans="1:4" ht="30.75" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>162</v>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="13" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="27.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="8" width="55.57"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="4" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:4" ht="24" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="7.5" customHeight="1"/>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="16" t="s">
+    <row r="9" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="17" t="s">
+    <row r="11" spans="1:4" ht="21" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>